--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741826.4776344043</v>
+        <v>706109.0676899783</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12402915.60941508</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6034514.474368501</v>
+        <v>5739665.974240762</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9551656.995411897</v>
+        <v>9701206.67923199</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>271.6458386227915</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>219.7607677364713</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.38002888221138</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906497</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>193.6625353078282</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>130.6685305731853</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>118.169212821623</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>89.12985772079095</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>6.303420761488946</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838606</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
         <v>192.0665623188214</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>55.94174219837196</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>65.95551276102691</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>319.9100351913893</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>99.20235183526425</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.78765443589957</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.22325617465722</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>133.9708793396589</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>176.8030671570835</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.68984412497</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>273.1506399572498</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>243.2391485592449</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23.9260469762712</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785993</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>148.2863188203551</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>58.92805047992118</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>77.31354443380452</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>109.9022384814635</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>248.3291065831753</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680958</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991714</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>24.90282215867956</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>328.4442783980567</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>230.0882684280483</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>258.2340539648368</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.79925355567548</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>220.6266854036309</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.76432082486842</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.3285722275973</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>157.8588687154358</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341.1246749400946</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>148.7118207940823</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.8228810500192</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>22.57348193317836</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>162.6159201417017</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>201.6622187863186</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>95.85419383864915</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>142.0975176632405</v>
+        <v>230.2267521569518</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1627038799787</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>197.4149500449652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>304.4930832847259</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.0787639577046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>114.4746605491554</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>857.0881319750911</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="C2" t="n">
-        <v>857.0881319750911</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="D2" t="n">
-        <v>857.0881319750911</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="E2" t="n">
-        <v>857.0881319750911</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="F2" t="n">
-        <v>857.0881319750911</v>
+        <v>325.6365225506208</v>
       </c>
       <c r="G2" t="n">
-        <v>440.6358706669656</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>128.9212793038229</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8290791267618</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>269.6240911917569</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>507.2468724099484</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>803.3174389675509</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1108.792545203136</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>1383.90876451977</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>1584.213091808873</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>1686.460553127927</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>1544.727438003257</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>1332.709567064687</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>1079.068705446274</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>857.0881319750911</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>857.0881319750911</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>857.0881319750911</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y2" t="n">
-        <v>857.0881319750911</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.361181930301</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>131.361181930301</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>131.361181930301</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>131.361181930301</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>131.361181930301</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>131.361181930301</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>33.72921106255855</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>59.04473788968937</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>180.4678301599682</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>390.0587034127988</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>653.9982349082861</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>939.3321053416188</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1240.876927054027</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>1413.205888007736</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>1543.309735648993</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>1347.691013115833</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>1119.574596246804</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>884.4224880150614</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>630.1851312868598</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>422.333631081327</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.5733323163731</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>748.5881983780441</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>748.5881983780441</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>748.5881983780441</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>616.5997836576549</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>469.7098361597446</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>301.3880637528684</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>149.6679752034538</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96388306992289</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>169.472972355726</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>395.84507567387</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>644.9118420064103</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>893.4909737490111</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1107.077740097166</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1266.31743473321</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.13166510086</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1175.471604442305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>972.9993576026061</v>
+        <v>1517.083278840534</v>
       </c>
       <c r="T4" t="n">
-        <v>748.5881983780441</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U4" t="n">
-        <v>748.5881983780441</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V4" t="n">
-        <v>748.5881983780441</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W4" t="n">
-        <v>748.5881983780441</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X4" t="n">
-        <v>748.5881983780441</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y4" t="n">
-        <v>748.5881983780441</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.2769458819334</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C5" t="n">
-        <v>51.24678656800314</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>51.24678656800314</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>51.24678656800314</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800314</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796632</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453061</v>
+        <v>2431.273029248354</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182947</v>
+        <v>2078.50437397824</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218669</v>
+        <v>2078.50437397824</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460552</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744487</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733669</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330614</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506776</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292611</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400157</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.1371474485143</v>
+        <v>515.8118151303141</v>
       </c>
       <c r="C7" t="n">
-        <v>825.1371474485143</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1569.824390012854</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1569.824390012854</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485143</v>
+        <v>1280.706052516692</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485143</v>
+        <v>1026.021564310805</v>
       </c>
       <c r="W7" t="n">
-        <v>825.1371474485143</v>
+        <v>736.6043942738443</v>
       </c>
       <c r="X7" t="n">
-        <v>825.1371474485143</v>
+        <v>736.6043942738443</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.1371474485143</v>
+        <v>515.8118151303141</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1118.44218746127</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C8" t="n">
-        <v>795.3007377729979</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D8" t="n">
-        <v>437.0350391662474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800313</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800313</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.228484740841</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>1999.808230476964</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1999.808230476964</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525392</v>
+        <v>1626.342472215884</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525392</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606941</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783103</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>397.5455328255072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>397.5455328255072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1280.442797896752</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>991.3244604005894</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>736.6399721947025</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>447.2228021577419</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1753.263343671913</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260925</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5281,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5314,16 +5314,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.909711953368</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2621.07717600452</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5381,28 +5381,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>849.5195445507017</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.044369546818</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V16" t="n">
-        <v>986.3598813409312</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="W16" t="n">
-        <v>696.9427113039706</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="X16" t="n">
-        <v>468.9531604059532</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y16" t="n">
-        <v>248.1605812624231</v>
+        <v>1031.168009380941</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1084.351530561927</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5703,10 +5703,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1849.200058761417</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1560.097191887061</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
         <v>1305.412703681174</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y22" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1175.30093260579</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1175.30093260579</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>817.0352339990397</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>431.2469814007955</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176918</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906803</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645724</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.900772669912</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>553.2677753977071</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>384.3315924698002</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1473.115540306455</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.698370269494</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>955.7088193714769</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.9162402279468</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W26" t="n">
-        <v>2755.806928794325</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X26" t="n">
-        <v>2755.806928794325</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962486</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034579</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622243</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.95903803985</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916659</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.605821609171</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>3120.355548834273</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>2892.365997936256</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.573418792726</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1934.208022973022</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6463,19 +6463,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3245.035800573951</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3245.035800573951</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2991.505323847787</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2660.442436504216</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2307.673781234102</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>1934.208022973022</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y29" t="n">
-        <v>1934.208022973022</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
@@ -6542,13 +6542,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1645.778206672847</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1645.778206672847</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>1417.78865577483</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.9960766313</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>194.542240332463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>66.5121164321834</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1767.918581386758</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1892.963660013481</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C35" t="n">
-        <v>1524.00114307307</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D35" t="n">
-        <v>1165.735444466319</v>
+        <v>673.7954257457811</v>
       </c>
       <c r="E35" t="n">
-        <v>1165.735444466319</v>
+        <v>673.7954257457811</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>673.7954257457811</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>258.7229755907776</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989293</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013481</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1633.759572880768</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435996</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>2808.291825995402</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V37" t="n">
-        <v>2553.607337789515</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W37" t="n">
-        <v>2264.190167752555</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X37" t="n">
-        <v>2036.200616854537</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y37" t="n">
-        <v>1815.408037711007</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X38" t="n">
-        <v>3121.906610713899</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.837793613838</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>163.837793613838</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>163.837793613838</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>163.837793613838</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271517</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y40" t="n">
-        <v>163.837793613838</v>
+        <v>775.9570515689412</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,43 +7493,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C44" t="n">
-        <v>722.3614154301667</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882606</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845645</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>1383.192889845645</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.400310702115</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>63.37360602116115</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>211.032901224157</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>114.3555089013343</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>139.9018641501625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>107.9914907336637</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.15315476765596</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22713,19 +22713,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>15.76543207338389</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>76.4932475401145</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1430340502166</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.448837708646</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>92.67373081984039</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>128.7069476007105</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>45.36285657961827</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>228.5499066348706</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>75.51894560890462</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>164.5254398225547</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>231.3020124313487</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>230.072978584628</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.1421360569673</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>109.5832017062308</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>126.4919521192241</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3207741223566</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>233.6440512519066</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>144.989919659699</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23943,13 +23943,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>79.42315188695957</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911108</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>217.1504125601308</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>381.9732235830319</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>41.28682228041231</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>22.04937489577966</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>111.4970467136322</v>
       </c>
       <c r="Y26" t="n">
-        <v>362.4386851003781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.3466769161723</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>134.0563562170521</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.42344096330741</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.50340795433995</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>60.725784636659</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>65.75137080161687</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>145.8959435932382</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>203.1361734558588</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>192.0671214789813</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>126.0900396838163</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>83.97778634328814</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>207.1434510541725</v>
+        <v>119.0142165604612</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.45276913823362</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>167.8579417260424</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>77.43728678753592</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628624.8962819921</v>
+        <v>778174.5801020849</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>778174.5801020851</v>
+        <v>778174.580102085</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778174.5801020851</v>
+        <v>778174.580102085</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424376</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247001.9304687609</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943088</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="F2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="F2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>340997.0989709207</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709207</v>
@@ -26355,7 +26355,7 @@
         <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863984.3294200042</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>238369.8891383887</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110313.0712406509</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>56355.79215856578</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11471.3714474063</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="C4" t="n">
-        <v>13767.31913011281</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="D4" t="n">
-        <v>13767.3191301128</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042261</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042234</v>
       </c>
       <c r="G4" t="n">
         <v>7330.627242042245</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75611.38525919239</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704065.1556578419</v>
+        <v>-920712.7073734599</v>
       </c>
       <c r="C6" t="n">
-        <v>-39103.35021403752</v>
+        <v>194039.0762024594</v>
       </c>
       <c r="D6" t="n">
-        <v>199266.5389243512</v>
+        <v>194039.0762024595</v>
       </c>
       <c r="E6" t="n">
-        <v>77287.15135029463</v>
+        <v>73810.96205223397</v>
       </c>
       <c r="F6" t="n">
-        <v>259360.1311674849</v>
+        <v>255883.9418694237</v>
       </c>
       <c r="G6" t="n">
-        <v>259360.131167485</v>
+        <v>255883.9418694243</v>
       </c>
       <c r="H6" t="n">
-        <v>259360.1311674851</v>
+        <v>255883.941869424</v>
       </c>
       <c r="I6" t="n">
-        <v>259360.1311674851</v>
+        <v>255883.9418694239</v>
       </c>
       <c r="J6" t="n">
-        <v>149047.0599268342</v>
+        <v>88278.76405944163</v>
       </c>
       <c r="K6" t="n">
-        <v>203004.3390089193</v>
+        <v>255883.941869424</v>
       </c>
       <c r="L6" t="n">
-        <v>259360.1311674849</v>
+        <v>255883.9418694242</v>
       </c>
       <c r="M6" t="n">
-        <v>211807.8653740704</v>
+        <v>208331.6760760093</v>
       </c>
       <c r="N6" t="n">
-        <v>259360.1311674851</v>
+        <v>255883.941869424</v>
       </c>
       <c r="O6" t="n">
-        <v>259360.1311674851</v>
+        <v>255883.9418694243</v>
       </c>
       <c r="P6" t="n">
-        <v>259360.1311674849</v>
+        <v>255883.9418694241</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0839356199294</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9696938180574</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819819</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180574</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180574</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090892</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625586</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066896</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611372</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014939</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682853</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658685</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485897</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775957</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330906</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325347</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282128</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494789</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674105</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743149</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307773</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859908</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261558</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605112</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911974</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240734</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257156</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433297</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.919299602891</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969223</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993428</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651428</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351907</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777204</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855594</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711386</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600314</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840045</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351508</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519963</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567078</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965189</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000331</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161566</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315067</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410126</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692776</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>277.895171026903</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223262</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586411</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932407</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517968</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>211.707952780637</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691791</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407401</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>304.5907290024323</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289995</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527186</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883167</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452557</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203475</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550912</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632331</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324797</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000443</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944473</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620073</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>364.0350380248667</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>577.6461122072598</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706109.0676899783</v>
+        <v>736615.3533793039</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12395515.18280278</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240762</v>
+        <v>5871787.915011356</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9701206.67923199</v>
+        <v>9633834.322017821</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>271.6458386227915</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>249.4884782569918</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>11.84147115893165</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S4" t="n">
-        <v>118.169212821623</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>110.5852500700385</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.4821493078639</v>
       </c>
       <c r="V5" t="n">
-        <v>6.303420761488946</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>106.4050059798773</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>65.95551276102691</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>303.9135285206993</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>99.20235183526425</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>56.22325617465722</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>8.906162259192037</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.8030671570835</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>157.5027115851883</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.68984412497</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.26879610203962</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>273.1506399572498</v>
+        <v>301.67167509297</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9260469762712</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>25.01141625626333</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>148.2863188203551</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>51.86416110574013</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>109.9022384814635</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7989719911872</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>248.3291065831753</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>88.18935773635857</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>34.98723076369722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>100.5751131451059</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>328.4442783980567</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>16.99141685203526</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>258.2340539648368</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18.26879610204007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.8030138434377</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>220.6266854036309</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>27.3247896121121</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.1918165590947</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.8588687154358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>265.7900564756472</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>36.159992120575</v>
       </c>
       <c r="G34" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>208.6902559978753</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>148.7118207940823</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>66.33120233356357</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>22.57348193317836</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>162.6159201417017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>52.45726733572457</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.85419383864915</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>25.01141625626333</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,10 +3720,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>273.8361873678178</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>230.2267521569518</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.1627038799787</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756568</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>304.4930832847259</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>256.3752374753448</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>84.69473660442775</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736.6224273402283</v>
+        <v>1156.385664683499</v>
       </c>
       <c r="C2" t="n">
-        <v>736.6224273402283</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="D2" t="n">
-        <v>736.6224273402283</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E2" t="n">
-        <v>736.6224273402283</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F2" t="n">
-        <v>325.6365225506208</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1916.451263008701</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.76175931604</v>
+        <v>1542.985504747621</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402283</v>
+        <v>1542.985504747621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>672.4313145613935</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>497.9782852802665</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>497.9782852802665</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>338.740830274811</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>192.206272301696</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>55.33027851681189</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>440.9010965631272</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>698.4522321231148</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1018.359127591624</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1361.141651586255</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1652.500897840821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1973.749505378628</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>1745.647915511893</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1510.49580728015</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1256.258450551948</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1048.406950346415</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>840.6466515814616</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S4" t="n">
-        <v>1517.083278840534</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T4" t="n">
-        <v>1294.10479803527</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U4" t="n">
-        <v>1004.986460539108</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V4" t="n">
-        <v>750.3019723332208</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="W4" t="n">
-        <v>460.8848022962601</v>
+        <v>375.8640484796419</v>
       </c>
       <c r="X4" t="n">
-        <v>232.8952513982428</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.365042002428</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,7 +4573,7 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="V5" t="n">
-        <v>2431.273029248354</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="W5" t="n">
-        <v>2078.50437397824</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="X5" t="n">
-        <v>2078.50437397824</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="Y5" t="n">
-        <v>1688.365042002428</v>
+        <v>2379.02402606898</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919907</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8118151303141</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8756322024072</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1569.824390012854</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1569.824390012854</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1280.706052516692</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1026.021564310805</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>736.6043942738443</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>736.6043942738443</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8118151303141</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.203140240072</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>840.3085481499463</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1999.808230476964</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.808230476964</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.342472215884</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.203140240072</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,28 +4880,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.715959553122</v>
@@ -4992,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1280.442797896752</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>991.3244604005894</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>736.6399721947025</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>447.2228021577419</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>219.2332512597245</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.909787855436</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C11" t="n">
-        <v>942.9472709150248</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D11" t="n">
-        <v>584.6815723082743</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E11" t="n">
-        <v>584.6815723082743</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839476</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5056,13 +5056,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5074,19 +5074,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919558</v>
+        <v>1892.184635123826</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,7 +5135,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5205,19 +5205,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610487</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046005</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676399</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696226</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260925</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.07717600452</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y14" t="n">
-        <v>2621.07717600452</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.5195445507017</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3518203322459</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484846</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278959</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.157560278959</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>1031.168009380941</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.168009380941</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1811.579746109089</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C17" t="n">
-        <v>1442.617229168677</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D17" t="n">
-        <v>1084.351530561927</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5518,7 +5518,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2961.784676410102</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2588.318918149022</v>
+        <v>2335.855760748373</v>
       </c>
       <c r="Y17" t="n">
-        <v>2198.179586173211</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1305.412703681174</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1015.995533644213</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>788.005982746196</v>
+        <v>395.0505287603335</v>
       </c>
       <c r="Y19" t="n">
-        <v>567.2134036026658</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2710.947195012955</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>2710.947195012955</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.947195012955</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y20" t="n">
-        <v>2320.807863037144</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,22 +5849,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>303.5053693442317</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>155.5922757618386</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>155.5922757618386</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1513.842048484845</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.501411349798</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.501411349798</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.511388127729</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.548871187317</v>
+        <v>994.1614947556893</v>
       </c>
       <c r="D23" t="n">
-        <v>905.2831725805665</v>
+        <v>994.1614947556893</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>994.1614947556893</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>583.1755899660818</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>168.1031398110783</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.012457539437</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X23" t="n">
-        <v>2409.250560167662</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y23" t="n">
-        <v>2019.11122819185</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260938</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260938</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260938</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E25" t="n">
-        <v>231.8553933260938</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F25" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260938</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.568750250373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4020639300938</v>
+        <v>502.1180458517765</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1501.213961756484</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C29" t="n">
-        <v>1501.213961756484</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6481,34 +6481,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2277.953133796418</v>
+        <v>2044.374588592646</v>
       </c>
       <c r="Y29" t="n">
-        <v>1887.813801820606</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.2215399677106</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C31" t="n">
-        <v>531.2215399677106</v>
+        <v>522.7127960696118</v>
       </c>
       <c r="D31" t="n">
-        <v>381.1049005553748</v>
+        <v>522.7127960696118</v>
       </c>
       <c r="E31" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.8700047979503</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W32" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>231.8553933260938</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C34" t="n">
-        <v>231.8553933260938</v>
+        <v>103.0373609984208</v>
       </c>
       <c r="D34" t="n">
-        <v>231.8553933260938</v>
+        <v>103.0373609984208</v>
       </c>
       <c r="E34" t="n">
-        <v>231.8553933260938</v>
+        <v>103.0373609984208</v>
       </c>
       <c r="F34" t="n">
-        <v>84.96544582818348</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6888,22 +6888,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="35">
@@ -6916,43 +6916,43 @@
         <v>1032.061124352532</v>
       </c>
       <c r="C35" t="n">
-        <v>1032.061124352532</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D35" t="n">
-        <v>673.7954257457811</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>673.7954257457811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F35" t="n">
-        <v>673.7954257457811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>258.7229755907776</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -7019,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.9541770656748</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="C37" t="n">
-        <v>529.0179941377679</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>691.6489789975187</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1191.821308835076</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>902.4041387981149</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>879.6026418959145</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.6026418959145</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1811.579746109089</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C38" t="n">
-        <v>1442.617229168677</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2961.784676410102</v>
+        <v>2371.756902727799</v>
       </c>
       <c r="X38" t="n">
-        <v>2588.318918149022</v>
+        <v>1998.291144466719</v>
       </c>
       <c r="Y38" t="n">
-        <v>2198.17958617321</v>
+        <v>1608.151812490907</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>679.1346335501037</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1224.739181610489</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.739181610489</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>996.7496307124713</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>775.9570515689412</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1689.318139675982</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7423,7 +7423,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883007</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2839.523069976995</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X41" t="n">
-        <v>2466.057311715915</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.917979740103</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C43" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7569,16 +7569,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1569.101759311879</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C44" t="n">
-        <v>1200.139242371467</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D44" t="n">
-        <v>1200.139242371467</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>736.462907560523</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>325.4770027709155</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883006</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612892</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.840931351812</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.701599376001</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7833,25 +7833,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>333.7108202567946</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>70.1274138643137</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>114.3555089013343</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>139.9018641501625</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>99.75249046042126</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22643,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>82.65934210292349</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22719,13 +22719,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>76.4932475401145</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.1244053189986</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>69.56310082059815</v>
       </c>
       <c r="V5" t="n">
-        <v>321.448837708646</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>73.42697420206002</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22950,16 +22950,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -22992,13 +22992,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>128.7069476007105</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>78.01684155156249</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>228.5499066348706</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>164.5254398225547</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.8034931298451</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.072978584628</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>228.7352270708653</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.1421360569673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445295</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.5832017062308</v>
+        <v>81.06216657051061</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3207741223566</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4225463903058</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>233.6440512519066</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>317.8669395727289</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>31.91068339784994</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>79.42315188695957</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>77.83645052266965</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>217.1504125601308</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>194.0326512422145</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>41.28682228041231</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>128.429631170896</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335964134056951</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>111.4970467136322</v>
+        <v>168.0688818921504</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>130.3466769161723</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>26.63094880313147</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>134.0563562170521</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>342.4063110663569</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>6.242146087474509</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.725784636659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>116.9437851878334</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>109.2610559023562</v>
       </c>
       <c r="G34" t="n">
-        <v>147.7570121569882</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>145.9927856228076</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>145.8959435932382</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>80.1027603130056</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>203.1361734558588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>192.0671214789813</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>296.7837013816884</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.97778634328814</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.4225463903058</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>108.8976542956627</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>119.0142165604612</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>34.45276913823362</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.60632145146255</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>77.43728678753592</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>154.5464881781087</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>63.92073641378461</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>778174.5801020849</v>
+        <v>710802.2228879174</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859202.1310424376</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424372</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424372</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401894</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="L2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709207</v>
-      </c>
       <c r="N2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1004321.885230093</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>104983.450530044</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>5.391791546571767e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>141841.1257376602</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25342.99488522366</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13767.31913011279</v>
+        <v>12379.40904543789</v>
       </c>
       <c r="C4" t="n">
         <v>13767.31913011279</v>
@@ -26426,10 +26426,10 @@
         <v>13767.31913011279</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042261</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042234</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
         <v>7330.627242042245</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,16 +26490,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-920712.7073734599</v>
+        <v>-823008.0020041738</v>
       </c>
       <c r="C6" t="n">
-        <v>194039.0762024594</v>
+        <v>93760.34212211793</v>
       </c>
       <c r="D6" t="n">
-        <v>194039.0762024595</v>
+        <v>198743.7926521621</v>
       </c>
       <c r="E6" t="n">
-        <v>73810.96205223397</v>
+        <v>76939.53242048879</v>
       </c>
       <c r="F6" t="n">
-        <v>255883.9418694237</v>
+        <v>259012.5122376787</v>
       </c>
       <c r="G6" t="n">
-        <v>255883.9418694243</v>
+        <v>259012.512237679</v>
       </c>
       <c r="H6" t="n">
-        <v>255883.941869424</v>
+        <v>259012.5122376787</v>
       </c>
       <c r="I6" t="n">
-        <v>255883.9418694239</v>
+        <v>259012.512237679</v>
       </c>
       <c r="J6" t="n">
-        <v>88278.76405944163</v>
+        <v>117171.3865000186</v>
       </c>
       <c r="K6" t="n">
-        <v>255883.941869424</v>
+        <v>233669.5173524554</v>
       </c>
       <c r="L6" t="n">
-        <v>255883.9418694242</v>
+        <v>259012.5122376787</v>
       </c>
       <c r="M6" t="n">
-        <v>208331.6760760093</v>
+        <v>211460.246444264</v>
       </c>
       <c r="N6" t="n">
-        <v>255883.941869424</v>
+        <v>259012.5122376788</v>
       </c>
       <c r="O6" t="n">
-        <v>255883.9418694243</v>
+        <v>259012.5122376789</v>
       </c>
       <c r="P6" t="n">
-        <v>255883.9418694241</v>
+        <v>259012.5122376791</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26810,16 +26810,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
+        <v>80.35422757985532</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>155.7118084757587</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>155.7118084757585</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31870,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31919,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31937,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,13 +34462,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>228.8054610813124</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113673</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0350380248667</v>
+        <v>436.2707275254364</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
